--- a/Additional Files/Zeiterfassung_JanMair_739694.xlsx
+++ b/Additional Files/Zeiterfassung_JanMair_739694.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>2h</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>Zeiterfassungsdokument erstellt, Vision verfasst</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Einarbeitung/Tutorials anschauen bezüglich asp.net core</t>
   </si>
 </sst>
 </file>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,6 +428,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42722</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Files/Zeiterfassung_JanMair_739694.xlsx
+++ b/Additional Files/Zeiterfassung_JanMair_739694.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>2h</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Einarbeitung/Tutorials anschauen bezüglich asp.net core</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Mit Code experimentiert, neues Leeres Projekt erstellt, Designskizze angefangen</t>
   </si>
 </sst>
 </file>
@@ -384,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +445,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42723</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Files/Zeiterfassung_JanMair_739694.xlsx
+++ b/Additional Files/Zeiterfassung_JanMair_739694.xlsx
@@ -9,18 +9,12 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>Dauer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Datum</t>
   </si>
@@ -31,22 +25,19 @@
     <t>Git-Repo aufgesetzt und Projekt in Visual Studio angelegt</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>Zeiterfassungsdokument erstellt, Vision verfasst</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>Einarbeitung/Tutorials anschauen bezüglich asp.net core</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>Mit Code experimentiert, neues Leeres Projekt erstellt, Designskizze angefangen</t>
+  </si>
+  <si>
+    <t>Design fortgesetzt, Login/Registrierung nahezu vollständig lauffähig</t>
+  </si>
+  <si>
+    <t>Dauer/h</t>
   </si>
 </sst>
 </file>
@@ -390,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,57 +394,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42701</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42719</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42722</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42723</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42724</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Additional Files/Zeiterfassung_JanMair_739694.xlsx
+++ b/Additional Files/Zeiterfassung_JanMair_739694.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Dauer/h</t>
+  </si>
+  <si>
+    <t>ein wenig weiter an login/registrierung gearbeitet, funktioniert noch nicht</t>
+  </si>
+  <si>
+    <t>login und registrierung funktioniert, wird in db persistiert, man kann sich als admin registrieren</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,6 +464,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42725</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42726</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Files/Zeiterfassung_JanMair_739694.xlsx
+++ b/Additional Files/Zeiterfassung_JanMair_739694.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>login und registrierung funktioniert, wird in db persistiert, man kann sich als admin registrieren</t>
+  </si>
+  <si>
+    <t>adminseite und adminseitencontroller erstellt mit admin authentifizierung, funktionierenden mailsender eingebaut, passwordrücksetzung mit mail eingebaut, emailbestätigung eingebaut, anrede,vorname,nachname hinzugefügt,erste seite ist unterschiedlich abhängig davon ob man eingeloggt ist oder nicht, manche sachen übersetzt(noch nicht alles), fehler bei registrierung behoben</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +489,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42727</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Files/Zeiterfassung_JanMair_739694.xlsx
+++ b/Additional Files/Zeiterfassung_JanMair_739694.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Datum</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>adminseite und adminseitencontroller erstellt mit admin authentifizierung, funktionierenden mailsender eingebaut, passwordrücksetzung mit mail eingebaut, emailbestätigung eingebaut, anrede,vorname,nachname hinzugefügt,erste seite ist unterschiedlich abhängig davon ob man eingeloggt ist oder nicht, manche sachen übersetzt(noch nicht alles), fehler bei registrierung behoben</t>
+  </si>
+  <si>
+    <t>zuende übersetzt von allem was zu dem zeitpunkt existiert hat und benötigt wird/werden wird</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +503,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42728</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Additional Files/Zeiterfassung_JanMair_739694.xlsx
+++ b/Additional Files/Zeiterfassung_JanMair_739694.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>zuende übersetzt von allem was zu dem zeitpunkt existiert hat und benötigt wird/werden wird</t>
+  </si>
+  <si>
+    <t>accountmanage seit mit passwort ändern,reservierungen löschbar, details,tauschseite und anfragenseite(noch ohne datenbankanbindung)</t>
   </si>
 </sst>
 </file>
@@ -85,10 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -393,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +429,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>42719</v>
       </c>
       <c r="B3">
@@ -512,6 +514,17 @@
       </c>
       <c r="C10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42731</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Additional Files/Zeiterfassung_JanMair_739694.xlsx
+++ b/Additional Files/Zeiterfassung_JanMair_739694.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -52,7 +52,10 @@
     <t>zuende übersetzt von allem was zu dem zeitpunkt existiert hat und benötigt wird/werden wird</t>
   </si>
   <si>
-    <t>accountmanage seit mit passwort ändern,reservierungen löschbar, details,tauschseite und anfragenseite(noch ohne datenbankanbindung)</t>
+    <t>anfragenseite komplettes layout und controllerfunktionen,detailseite gefüllt</t>
+  </si>
+  <si>
+    <t>accountmanage seit mit passwort ändern,reservierungen löschbar, details,tauschseite</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +527,17 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42732</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Additional Files/Zeiterfassung_JanMair_739694.xlsx
+++ b/Additional Files/Zeiterfassung_JanMair_739694.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>accountmanage seit mit passwort ändern,reservierungen löschbar, details,tauschseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tauschen komplett,user bekommt anzahl unbearbeiteter tauschanfragen angezeigt, kursauswahl angefangen </t>
+  </si>
+  <si>
+    <t>kursauswahl größtenteils fertiggestellt</t>
+  </si>
+  <si>
+    <t>checks bei kursauswahl um leere eingaben zu vermeiden, kleine fixes und rechtschreibfehler verbessert</t>
+  </si>
+  <si>
+    <t>bug fixes</t>
   </si>
 </sst>
 </file>
@@ -398,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,6 +553,50 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42733</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42737</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42738</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42741</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
